--- a/0-Simulateur-Capteurs/Dataset/Environment Temperature.xlsx
+++ b/0-Simulateur-Capteurs/Dataset/Environment Temperature.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anish\Desktop\Sensors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abder\Desktop\5IIR\Architecture Composants D'entreprise\Projet-AgroTrace-MS\0-Simulateur-Capteurs\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42CE135-3F43-4246-8ED5-B44456BB349C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EC2FC9-600F-4ABA-AA87-F7904BDCB63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2890B70E-5E4D-4693-9574-8E9B82F101CD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{2890B70E-5E4D-4693-9574-8E9B82F101CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -398,9 +398,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -438,7 +438,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -544,7 +544,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -686,7 +686,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -696,11 +696,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEACDAB8-F669-4E85-BDF0-405013DD3764}">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
@@ -733,7 +733,7 @@
         <v>2245</v>
       </c>
       <c r="C3" s="1">
-        <v>26.2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -788,7 +788,7 @@
         <v>2250</v>
       </c>
       <c r="C8" s="1">
-        <v>26.3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -821,7 +821,7 @@
         <v>2253</v>
       </c>
       <c r="C11" s="1">
-        <v>26.3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -854,7 +854,7 @@
         <v>2256</v>
       </c>
       <c r="C14" s="1">
-        <v>26.4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -876,7 +876,7 @@
         <v>2258</v>
       </c>
       <c r="C16" s="1">
-        <v>26.4</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -887,7 +887,7 @@
         <v>2259</v>
       </c>
       <c r="C17" s="1">
-        <v>26.4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -898,7 +898,7 @@
         <v>2260</v>
       </c>
       <c r="C18" s="1">
-        <v>26.4</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -920,7 +920,7 @@
         <v>2262</v>
       </c>
       <c r="C20" s="1">
-        <v>26.4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -942,7 +942,7 @@
         <v>2264</v>
       </c>
       <c r="C22" s="1">
-        <v>26.4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -964,7 +964,7 @@
         <v>2266</v>
       </c>
       <c r="C24" s="1">
-        <v>26.3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -975,7 +975,7 @@
         <v>2267</v>
       </c>
       <c r="C25" s="1">
-        <v>26.4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -986,7 +986,7 @@
         <v>2268</v>
       </c>
       <c r="C26" s="1">
-        <v>26.3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -1008,7 +1008,7 @@
         <v>2270</v>
       </c>
       <c r="C28" s="1">
-        <v>26.2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1019,7 +1019,7 @@
         <v>2271</v>
       </c>
       <c r="C29" s="1">
-        <v>26.2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1030,7 +1030,7 @@
         <v>2272</v>
       </c>
       <c r="C30" s="1">
-        <v>26.2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1041,7 +1041,7 @@
         <v>2273</v>
       </c>
       <c r="C31" s="1">
-        <v>26.1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1052,7 +1052,7 @@
         <v>2274</v>
       </c>
       <c r="C32" s="1">
-        <v>26.1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -1074,7 +1074,7 @@
         <v>2276</v>
       </c>
       <c r="C34" s="1">
-        <v>26.2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1085,7 +1085,7 @@
         <v>2277</v>
       </c>
       <c r="C35" s="1">
-        <v>26.2</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -1096,7 +1096,7 @@
         <v>2278</v>
       </c>
       <c r="C36" s="1">
-        <v>26.1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1107,7 +1107,7 @@
         <v>2279</v>
       </c>
       <c r="C37" s="1">
-        <v>26.1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1129,7 +1129,7 @@
         <v>2281</v>
       </c>
       <c r="C39" s="1">
-        <v>26.1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -1162,7 +1162,7 @@
         <v>2284</v>
       </c>
       <c r="C42" s="1">
-        <v>26.1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -1173,7 +1173,7 @@
         <v>2285</v>
       </c>
       <c r="C43" s="1">
-        <v>26.1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -1206,7 +1206,7 @@
         <v>2288</v>
       </c>
       <c r="C46" s="1">
-        <v>26.1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1239,7 +1239,7 @@
         <v>2291</v>
       </c>
       <c r="C49" s="1">
-        <v>26.1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -1250,7 +1250,7 @@
         <v>2292</v>
       </c>
       <c r="C50" s="1">
-        <v>26.1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -1745,7 +1745,7 @@
         <v>2337</v>
       </c>
       <c r="C95" s="1">
-        <v>26.7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
